--- a/GDP & Graphs.xlsx
+++ b/GDP & Graphs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apanta1/Desktop/Summer Research 2024/Night_Light_Institutional_Capacity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC76FC2-603C-D040-AFF1-A15DB0AEB6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8AF13-B7C2-9E46-A8CB-525C254BC0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{6D6F2155-EFA6-C34D-820D-F4BF4DDB6DFC}"/>
+    <workbookView xWindow="7040" yWindow="-21600" windowWidth="28160" windowHeight="21600" activeTab="1" xr2:uid="{6D6F2155-EFA6-C34D-820D-F4BF4DDB6DFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Avg_per_sq_km" sheetId="2" r:id="rId1"/>
+    <sheet name="GDP" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,12 +37,99 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>area_kmsq</t>
+  </si>
+  <si>
+    <t>sum_2023</t>
+  </si>
+  <si>
+    <t>sum_2022</t>
+  </si>
+  <si>
+    <t>sum_2021</t>
+  </si>
+  <si>
+    <t>sum_2020</t>
+  </si>
+  <si>
+    <t>sum_2019</t>
+  </si>
+  <si>
+    <t>sum_2018</t>
+  </si>
+  <si>
+    <t>sum_2017</t>
+  </si>
+  <si>
+    <t>sum_2016</t>
+  </si>
+  <si>
+    <t>sum_2015</t>
+  </si>
+  <si>
+    <t>sum_2014</t>
+  </si>
+  <si>
+    <t>sum_2013</t>
+  </si>
+  <si>
+    <t>sum_2012</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>NL_per_sq_km</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Night Lightt Sum</t>
+  </si>
+  <si>
+    <t>Avg Per Sq</t>
+  </si>
+  <si>
+    <t>Sum_Nightlight</t>
+  </si>
+  <si>
+    <t>ln_sum_nl</t>
+  </si>
+  <si>
+    <t>real_gdp</t>
+  </si>
+  <si>
+    <t>real_gdp_mil</t>
+  </si>
+  <si>
+    <t>ln_real_gdp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +174,1107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Change in Night Light of Nepal from 2012-2023 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.589947044443536E-2"/>
+          <c:y val="0.12725636846708049"/>
+          <c:w val="0.88826200207694139"/>
+          <c:h val="0.82096007367109147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg_per_sq_km!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NL_per_sq_km</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Avg_per_sq_km!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg_per_sq_km!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.90779412000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1698137200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0198145599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2129577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87690694000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8705457999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.82188361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.77890324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2356060599999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.62125619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6580415400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.20483348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FCA-1D45-9778-0C2EC22D8724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="4544720"/>
+        <c:axId val="1163991536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="4544720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1163991536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1163991536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t> Avg.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Night Light per sq.km</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4544720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>631581</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A112321-2E50-782B-5D0C-5B3C20931E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,13 +1593,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD15C4-92CD-DD4D-82F2-5FD142A378A5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556E06C3-3E99-AD4C-B3EE-0FD826E0F9E6}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.90779412000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.1698137200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0198145599999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.2129577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.87690694000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.8705457999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.82188361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.77890324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.2356060599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.62125619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.6580415400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.20483348</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE89D1FD-6D11-F544-8132-9C3EC53F92F9}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2">
+        <v>130011.75006289409</v>
+      </c>
+      <c r="C2">
+        <f>LN(B2)</f>
+        <v>11.775380110452417</v>
+      </c>
+      <c r="D2">
+        <v>17442.759249999999</v>
+      </c>
+      <c r="E2">
+        <f>D2*1000000</f>
+        <v>17442759250</v>
+      </c>
+      <c r="F2">
+        <f>LN(E2)</f>
+        <v>23.582190456788897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>167537.46881203973</v>
+      </c>
+      <c r="C3">
+        <f>LN(B3)</f>
+        <v>12.028962299631633</v>
+      </c>
+      <c r="D3">
+        <v>17812.166999999998</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">D3*1000000</f>
+        <v>17812166999.999996</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">LN(E3)</f>
+        <v>23.603147600063689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <v>146055.00592638997</v>
+      </c>
+      <c r="C4">
+        <f>LN(B4)</f>
+        <v>11.891738582657393</v>
+      </c>
+      <c r="D4">
+        <v>18261.714249999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>18261714249.999996</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>23.628072587772493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>173716.42984895976</v>
+      </c>
+      <c r="C5">
+        <f>LN(B5)</f>
+        <v>12.065179535257288</v>
+      </c>
+      <c r="D5">
+        <v>20537.273108108111</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>20537273108.108112</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>23.74550727256079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>125588.17386277107</v>
+      </c>
+      <c r="C6">
+        <f>LN(B6)</f>
+        <v>11.74076337143963</v>
+      </c>
+      <c r="D6">
+        <v>19141.67225</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>19141672250</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>23.675133588538227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>267894.36959290004</v>
+      </c>
+      <c r="C7">
+        <f>LN(B7)</f>
+        <v>12.498348038488029</v>
+      </c>
+      <c r="D7">
+        <v>19612.102500000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>19612102500</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>23.699412687113746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>260925.10565089935</v>
+      </c>
+      <c r="C8">
+        <f>LN(B8)</f>
+        <v>12.471988693597241</v>
+      </c>
+      <c r="D8">
+        <v>20193.895249999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>20193895249.999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>23.728646180330774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>254769.57643124252</v>
+      </c>
+      <c r="C9">
+        <f>LN(B9)</f>
+        <v>12.448114793789973</v>
+      </c>
+      <c r="D9">
+        <v>20692.086749999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20692086750</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>23.753017181520416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>320177.28551632166</v>
+      </c>
+      <c r="C10">
+        <f>LN(B10)</f>
+        <v>12.676630138603523</v>
+      </c>
+      <c r="D10">
+        <v>20234.074000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>20234074000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>23.730633851934058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>375409.02494667016</v>
+      </c>
+      <c r="C11">
+        <f>LN(B11)</f>
+        <v>12.835771443726415</v>
+      </c>
+      <c r="D11">
+        <v>21407.692500000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>21407692500</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>23.78701615699983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>380677.31975987554</v>
+      </c>
+      <c r="C12">
+        <f>LN(B12)</f>
+        <v>12.849707365497093</v>
+      </c>
+      <c r="D12">
+        <v>21822.036500000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>21822036500.000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>23.806186144801877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>458987.34223031998</v>
+      </c>
+      <c r="C13">
+        <f>LN(B13)</f>
+        <v>13.036777911822172</v>
+      </c>
+      <c r="D13">
+        <v>22376.906500000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>22376906500</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>23.831295304181356</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD15C4-92CD-DD4D-82F2-5FD142A378A5}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>143217.22000000012</v>
+      </c>
+      <c r="C2">
+        <v>458987.34223031998</v>
+      </c>
+      <c r="D2">
+        <v>380677.31975987554</v>
+      </c>
+      <c r="E2">
+        <v>375409.02494667016</v>
+      </c>
+      <c r="F2">
+        <v>320177.28551632166</v>
+      </c>
+      <c r="G2">
+        <v>254769.57643124252</v>
+      </c>
+      <c r="H2">
+        <v>260925.10565089935</v>
+      </c>
+      <c r="I2">
+        <v>267894.36959290004</v>
+      </c>
+      <c r="J2">
+        <v>125588.17386277107</v>
+      </c>
+      <c r="K2">
+        <v>173716.42984895976</v>
+      </c>
+      <c r="L2">
+        <v>146055.00592638997</v>
+      </c>
+      <c r="M2">
+        <v>167537.46881203973</v>
+      </c>
+      <c r="N2">
+        <v>130011.75006289409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>(C2/B2)</f>
+        <v>3.2048334846209108</v>
+      </c>
+      <c r="D3">
+        <f>(D2/B2)</f>
+        <v>2.6580415383001794</v>
+      </c>
+      <c r="E3">
+        <f>(E2/B2)</f>
+        <v>2.621256193540622</v>
+      </c>
+      <c r="F3">
+        <f>(F2/B2)</f>
+        <v>2.2356060641054296</v>
+      </c>
+      <c r="G3">
+        <f>(G2/B2)</f>
+        <v>1.7789032382505561</v>
+      </c>
+      <c r="H3">
+        <f>(H2/B2)</f>
+        <v>1.8218836090443533</v>
+      </c>
+      <c r="I3">
+        <f>(I2/B2)</f>
+        <v>1.8705458016354446</v>
+      </c>
+      <c r="J3">
+        <f>(J2/B2)</f>
+        <v>0.8769069380258252</v>
+      </c>
+      <c r="K3">
+        <f>(K2/B2)</f>
+        <v>1.2129577005401977</v>
+      </c>
+      <c r="L3">
+        <f>(L2/B2)</f>
+        <v>1.0198145580984594</v>
+      </c>
+      <c r="M3">
+        <f>(M2/B2)</f>
+        <v>1.1698137194119507</v>
+      </c>
+      <c r="N3">
+        <f>(N2/B2)</f>
+        <v>0.90779411905142404</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>